--- a/entregas/hito-3/Presupuesto_Truequealo.xlsx
+++ b/entregas/hito-3/Presupuesto_Truequealo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="576" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="576"/>
   </bookViews>
   <sheets>
     <sheet name="Principal - ABP" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <sheet name="NM" sheetId="32" r:id="rId14"/>
     <sheet name="NM2" sheetId="36" r:id="rId15"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Graficos1" localSheetId="11">#REF!</definedName>
     <definedName name="Graficos1" localSheetId="9">#REF!</definedName>
@@ -5843,57 +5839,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Principal - ABP"/>
-      <sheetName val="PM"/>
-      <sheetName val="TAG"/>
-      <sheetName val="V1"/>
-      <sheetName val="V2"/>
-      <sheetName val="PD"/>
-      <sheetName val="TDS"/>
-      <sheetName val="RV"/>
-      <sheetName val="SMBI"/>
-      <sheetName val="SMA"/>
-      <sheetName val="ELE"/>
-      <sheetName val="SDM"/>
-      <sheetName val="NM"/>
-      <sheetName val="NM2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="19">
-          <cell r="N19">
-            <v>5</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -6218,8 +6163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7908,7 +7853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -8155,7 +8100,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="1">
-        <f>'[1]Principal - ABP'!N19</f>
+        <f>'Principal - ABP'!N19</f>
         <v>5</v>
       </c>
       <c r="E13" s="102" t="s">
